--- a/LinkZine/JS-Frameworks-Self-Evaluation-Protocol (1).xlsx
+++ b/LinkZine/JS-Frameworks-Self-Evaluation-Protocol (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>∞</t>
-  </si>
-  <si>
     <t>User Register Screen</t>
   </si>
   <si>
@@ -169,13 +166,16 @@
   </si>
   <si>
     <t>Barish Iliyazov Yumerov</t>
+  </si>
+  <si>
+    <t>https://github.com/BarishYumerov/AngularJS/tree/master/LinkZine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +205,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.65"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -300,10 +307,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -357,9 +368,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Хипервръзка" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -629,7 +644,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -640,7 +655,7 @@
   <dimension ref="B2:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -677,7 +692,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -687,7 +702,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -700,11 +715,13 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" ht="17.25">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
@@ -712,9 +729,11 @@
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="12" t="s">
-        <v>19</v>
+      <c r="C8" s="6">
+        <v>12</v>
+      </c>
+      <c r="D8" s="12">
+        <v>12</v>
       </c>
       <c r="E8" s="6">
         <v>100</v>
@@ -724,9 +743,11 @@
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="12" t="s">
-        <v>19</v>
+      <c r="C9" s="6">
+        <v>60</v>
+      </c>
+      <c r="D9" s="12">
+        <v>60</v>
       </c>
       <c r="E9" s="6">
         <v>100</v>
@@ -734,7 +755,7 @@
     </row>
     <row r="10" spans="2:5" ht="18.75">
       <c r="B10" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -780,7 +801,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5">
@@ -804,7 +825,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5">
@@ -816,7 +837,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5">
@@ -828,7 +849,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5">
@@ -840,7 +861,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5">
@@ -852,7 +873,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5">
@@ -864,7 +885,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5">
@@ -876,7 +897,7 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5">
@@ -888,7 +909,7 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5">
@@ -900,7 +921,7 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5">
@@ -912,7 +933,7 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5">
@@ -924,7 +945,7 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5">
@@ -936,7 +957,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5">
@@ -948,7 +969,7 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5">
@@ -960,7 +981,7 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5">
@@ -984,7 +1005,7 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5">
@@ -1008,7 +1029,7 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5">
@@ -1020,7 +1041,7 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5">
@@ -1032,7 +1053,7 @@
     </row>
     <row r="35" spans="2:5" ht="18.75">
       <c r="B35" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -1040,7 +1061,7 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7">
@@ -1052,7 +1073,7 @@
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7">
@@ -1064,7 +1085,7 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7">
@@ -1076,7 +1097,7 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7">
@@ -1088,7 +1109,7 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7">
@@ -1100,7 +1121,7 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7">
@@ -1112,7 +1133,7 @@
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7">
@@ -1124,7 +1145,7 @@
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7">
@@ -1140,12 +1161,14 @@
       </c>
       <c r="C44" s="11">
         <f>SUM(C6:C43)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D44" s="11">
         <v>370</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1">
+        <v>370</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1157,7 +1180,10 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="C7:E7"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>